--- a/code/files/table.xlsx
+++ b/code/files/table.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="74">
   <si>
     <t>Среда</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Газ</t>
+  </si>
+  <si>
+    <t>Сероводород</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,6 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -740,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,6 +2111,37 @@
       </c>
       <c r="K46" s="5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="31">
+        <v>1.73E-6</v>
+      </c>
+      <c r="G47" s="31">
+        <v>1.026</v>
+      </c>
+      <c r="H47" s="31">
+        <v>34</v>
+      </c>
+      <c r="I47" s="31">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="J47" s="31">
+        <v>1.33</v>
+      </c>
+      <c r="K47" s="31">
+        <v>0.98529999999999995</v>
       </c>
     </row>
   </sheetData>
